--- a/06_pandas/data.xlsx
+++ b/06_pandas/data.xlsx
@@ -539,7 +539,7 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -568,7 +568,7 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -626,7 +626,7 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -684,7 +684,7 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -713,7 +713,7 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -742,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
